--- a/pred_ohlcv/54_21/2020-01-22 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 TMTG ohlcv.xlsx
@@ -3434,7 +3434,7 @@
         <v>-670118.6868440415</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-667654.1108440415</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-670742.1708440415</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-670742.1708440415</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-670742.1708440415</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-666088.5818440415</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-665276.5268440414</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-663784.2938440414</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-665705.1348440414</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-666197.8768440414</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-666197.8768440414</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-664547.5168440414</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-664311.4708440414</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-664888.8818440414</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-663997.7008440414</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-664276.4218440414</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-665028.6058440414</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-665028.6058440414</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-665028.6058440414</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-665028.6058440414</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-663770.5688440414</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-664625.5358440414</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-664625.5358440414</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-661728.7038440413</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-661411.2038440413</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-659021.8018440413</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-659960.7568440413</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-658562.4468440412</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-657921.2598440412</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-653397.9538440412</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-649334.3398440413</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-655177.5308440413</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-653284.1438440412</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-655541.4038440412</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-655881.6668440412</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-655881.6668440412</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-654269.1758440412</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-654474.2568440412</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-653463.1948440411</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-655136.7728440411</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-655136.7728440411</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-655136.7728440411</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-653581.1838440411</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-654033.496844041</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-652882.8648440411</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-654808.1888440411</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-654405.496844041</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-655692.304844041</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-653619.037844041</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-654057.154844041</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-652879.782844041</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-650666.553844041</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-649868.747844041</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-651079.5288440409</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-653150.6528440409</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-653150.6528440409</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-653150.6528440409</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-653150.6528440409</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-652276.7248440409</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-650875.7758440409</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-648731.0718440409</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-648159.2898440409</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1079778.464544041</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1077641.966544041</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1077641.966544041</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1077641.966544041</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1073139.413544041</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1064944.395544041</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1064944.395544041</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1054871.819544041</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1053972.357544041</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1056555.017544041</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1056555.017544041</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1056045.126544041</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1522426.944744041</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1520751.138744041</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1515491.797344041</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1017093.186344041</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1017093.186344041</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1020799.582344041</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1015843.394344041</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1014047.306344041</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1017307.258344041</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1022005.110344041</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1022835.710344041</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1024926.353344041</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1018925.075344041</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-989728.6593440407</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1016627.444344041</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-985346.1243440408</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-952251.9853440408</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-950315.0483440408</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-956117.2153440408</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-963917.2383440408</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-961732.8343440408</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-958002.0143440409</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-952650.8223440408</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-952166.3253440409</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-953746.5903440409</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-956169.8513440409</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-955415.6223440409</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-885228.4943440409</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1215035.718344041</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-454286.7443440409</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>828361.8497000006</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-624020.9447467693</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-621894.8270467692</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-621894.8270467692</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-368424.2315273893</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-5040518.722215186</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-4836147.588215186</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-4836147.588215186</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-4836147.588215186</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-4836147.588215186</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-4836147.588215186</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-4836147.588215186</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-4904821.891215187</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-4904821.891215187</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-4518629.256215187</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-4518629.256215187</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-4657511.218215187</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-4657511.218215187</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-4657511.218215187</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-4657511.218215187</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-1370843.70013144</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1193730.926247693</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1629191.965247693</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1629191.965247693</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1629191.965247693</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1832504.947247693</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1951212.614247693</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-2473776.175041229</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-2816574.323741228</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-531028.9118517712</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-531028.9118517712</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-1261665.625851771</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-1323225.734851771</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-1256756.544851771</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-1043324.601851771</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-1719372.237851771</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-1137878.743851771</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-1137878.743851771</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-1526923.101851771</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-1544997.733851771</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-1592778.784851771</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-1657192.313351771</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-1657192.313351771</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-1658429.919351771</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-1660313.159351771</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-1703041.477851771</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-1703041.477851771</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-1705586.643851771</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-1925740.389851771</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-1925609.014851771</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-1925937.400851771</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-1923612.527851771</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-4434141.31805177</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-4442933.39205177</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-4442933.39205177</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-4325822.47205177</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-4472122.026051771</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-4472122.026051771</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-4472122.026051771</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-4472122.026051771</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-4472122.026051771</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-4334552.442051771</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-3948521.608051771</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-3923384.280051771</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-3965984.302051771</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-5580192.77805177</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-5507813.24205177</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-5395070.63805177</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-5692035.778051769</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-5908183.79246414</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-5058808.936051768</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-5058808.936051768</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-5058808.936051768</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-4919971.886051768</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-5020376.000051768</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-5020376.000051768</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-5020376.000051768</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-5020376.000051768</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-5020376.000051768</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-5020376.000051768</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-5001257.690051769</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-4960253.780051769</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-4887180.116051769</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-4887180.116051769</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-4736900.932051769</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-4747919.930051768</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-4771665.132051768</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-5001110.460351768</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-4896696.436351768</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-4906495.428351767</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-5056151.878351768</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-5022096.798351767</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-4959926.506351767</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-4842645.014351767</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-4842645.014351767</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-4859702.120351767</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-4816928.626351767</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-4755337.636351767</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-4946450.004351767</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-4811156.166351767</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-4819770.672351767</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-4862825.316351768</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-4718306.858351768</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-4614768.520351768</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-4781310.666351767</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-4832270.748351768</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-4628984.304351768</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-4836487.626351767</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-4598157.232351767</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-4343952.316351767</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-4643568.988351767</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-4578488.390351767</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-4474238.650351766</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-4474238.650351766</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-4111744.956351766</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-4150102.642351767</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-4150102.642351767</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-4150102.642351767</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-4150102.642351767</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-3938263.542351766</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-3955005.988351766</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-3955005.988351766</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3955005.988351766</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3830960.534351767</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3975865.659451766</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3951351.903451766</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3951351.903451766</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-3831879.559451766</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3999933.647451766</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-3802994.199451766</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3780942.60883321</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-7877415.200493004</v>
       </c>
       <c r="H1015">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-7882464.035493004</v>
       </c>
       <c r="H1016">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-8020247.659893004</v>
       </c>
       <c r="H1017">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-8019851.011893004</v>
       </c>
       <c r="H1018">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-8019851.011893004</v>
       </c>
       <c r="H1019">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-8095837.212393004</v>
       </c>
       <c r="H1020">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-7802969.045268994</v>
       </c>
       <c r="H1021">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-7757721.052068993</v>
       </c>
       <c r="H1022">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-7774393.912468994</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-7769591.264468993</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 TMTG ohlcv.xlsx
@@ -6008,7 +6008,7 @@
         <v>-1017093.186344041</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1017093.186344041</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1020799.582344041</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1015843.394344041</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1014047.306344041</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1017307.258344041</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1022005.110344041</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1022835.710344041</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1024926.353344041</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1018925.075344041</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-989728.6593440407</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1016627.444344041</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-985346.1243440408</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-952251.9853440408</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-950315.0483440408</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-956117.2153440408</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-963917.2383440408</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-961732.8343440408</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-958002.0143440409</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-952650.8223440408</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-952166.3253440409</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-953746.5903440409</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-956169.8513440409</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-955415.6223440409</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-885228.4943440409</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1215035.718344041</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-454286.7443440409</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>828361.8497000006</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-624020.9447467693</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-621894.8270467692</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-621894.8270467692</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-368424.2315273893</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>146049.0560939229</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>218091.7370939229</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-68641.86990607716</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1193730.926247693</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1629191.965247693</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1629191.965247693</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1629191.965247693</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1832504.947247693</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1951212.614247693</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-1871878.496041229</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-1871878.496041229</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-1657454.892041228</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-2047263.739041229</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-2047263.739041229</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-2068457.120041228</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-2226923.933041228</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-2473776.175041229</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-2473776.175041229</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-531028.9118517712</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-531028.9118517712</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-531028.9118517712</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-1261665.625851771</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-1323225.734851771</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-1256756.544851771</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-1043324.601851771</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-1719372.237851771</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-1137878.743851771</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-1137878.743851771</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-1526923.101851771</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-1544997.733851771</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-1592778.784851771</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-1657192.313351771</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-1657192.313351771</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-1658429.919351771</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-1660313.159351771</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-1703041.477851771</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-1703041.477851771</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-1705586.643851771</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-1925740.389851771</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-1925609.014851771</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-1925937.400851771</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-1925937.400851771</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-1924118.112851771</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-1923612.527851771</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-4442933.39205177</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-4442933.39205177</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-4472122.026051771</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-5022096.798351767</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-4959926.506351767</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-4862825.316351768</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-4718306.858351768</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-4614768.520351768</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-4832270.748351768</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-4628984.304351768</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-4836487.626351767</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-4598157.232351767</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-4343952.316351767</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-4643568.988351767</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-4578488.390351767</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-4474238.650351766</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-7882464.035493004</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-8020247.659893004</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-8019851.011893004</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-8019851.011893004</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-8095837.212393004</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-7802969.045268994</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-7757721.052068993</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-7787145.005468993</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-7783306.404468993</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-7782843.250468993</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-7781573.732468992</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-7784006.075468993</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-7783874.088468993</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-7783874.088468993</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-7782119.585468994</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-7779609.444468994</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-7779949.093468994</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-7779949.093468994</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-7779949.093468994</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-7775360.493468994</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-7776866.577468994</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-7772408.864468994</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-7772540.851468993</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-7772540.851468993</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-7772540.851468993</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-7769193.185468993</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-7768281.086468993</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-7770493.171468993</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-7767392.353468993</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-7766749.574468993</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-1989048.301468993</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-1986903.201468993</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-1121036.840768992</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
